--- a/LEDs/LED Communication 2018.xlsx
+++ b/LEDs/LED Communication 2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,22 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3500" yWindow="880" windowWidth="25300" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Alliance Color</t>
   </si>
@@ -191,13 +186,22 @@
     <t>Intake On</t>
   </si>
   <si>
-    <t>Power Cube Secured</t>
-  </si>
-  <si>
-    <t>Power Cube Griped</t>
-  </si>
-  <si>
-    <t>Raising Power Cube</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Intake Reverse</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>0-100</t>
   </si>
 </sst>
 </file>
@@ -310,7 +314,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,21 +336,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -695,7 +702,7 @@
   <dimension ref="A2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,18 +711,17 @@
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -727,26 +733,26 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -767,33 +773,35 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -813,30 +821,29 @@
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
+      <c r="P4" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -856,19 +863,24 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="O5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="P5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
@@ -878,17 +890,16 @@
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="O6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="P6" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
@@ -900,13 +911,10 @@
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
@@ -922,9 +930,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -942,30 +949,26 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>